--- a/biology/Zoologie/Cladodus/Cladodus.xlsx
+++ b/biology/Zoologie/Cladodus/Cladodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladodus est un genre éteint de cladodontes, un type primitif de requins. 
 Selon wikispecies, le genre appartient à la famille des Cladoselachidae et à l'ordre des Cladoselachiformes. Selon Paleobiology Database, le genre appartient à la famille des Ctenacanthidae et à l'ordre des Ctenacanthiformes. Les espèces sont trouvées dans des terrains datant du Carbonifère au Permien, avec une répartition mondiale.
@@ -512,20 +524,22 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Cladodus alternatus St. John &amp; Worthen, 1875
 †Cladodus angulatus Newberry &amp; Worthen, 1866
 †Cladodus bellifer St. John &amp; Worthen, 1875
 †Cladodus divaricatus Trautschold, 1874
-†Cladodus elegans Newberry &amp; Worthen, 1870 [2] Les restes fossiles (boite crânienne et une dent) ont été trouvés en Écosse[3] (syn. Cladodus intercostatus St John &amp; Worthen, 1875, Cladodus mucronatus Davis, 1883).
+†Cladodus elegans Newberry &amp; Worthen, 1870  Les restes fossiles (boite crânienne et une dent) ont été trouvés en Écosse (syn. Cladodus intercostatus St John &amp; Worthen, 1875, Cladodus mucronatus Davis, 1883).
 †Cladodus eriensis Bryant, 1935
 †Cladodus formosus Hay, 1902
 †Cladodus marginatus Agassiz, 1843
 †Cladodus mirabilis Agassiz, 1843 (espèce type)
 †Cladodus pandatus St. John &amp; Worthen, 1875
 †Cladodus springeri St. John &amp; Worthen, 1875
-†Cladodus thomasi Turner, 1982[4]
+†Cladodus thomasi Turner, 1982
 †Cladodus vanhornei St. John &amp; Worthen, 1875
 †Cladodus yunnanensis Pan, 1964</t>
         </is>
